--- a/prodinfo/mea/ae/output/res20260110.xlsx
+++ b/prodinfo/mea/ae/output/res20260110.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-10 16:50:20</v>
+        <v>2026-01-10 16:52:11</v>
       </c>
       <c r="B2" t="str">
         <v>阿联酋</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-10 16:50:29</v>
+        <v>2026-01-10 16:52:17</v>
       </c>
       <c r="B3" t="str">
         <v>阿联酋</v>
@@ -471,9 +471,860 @@
         <v>3399</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2026-01-10 16:52:22</v>
+      </c>
+      <c r="B4" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C4" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-galaxy-z-fold7-5g-512gb-12gb-ram-jet-black-ai-smartphone-middle-east-version/?promo=3728749</v>
+      </c>
+      <c r="E4" t="str">
+        <v>SAMSUNG Z Fold7 12+512</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2026-01-10 16:52:29</v>
+      </c>
+      <c r="B5" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C5" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-galaxy-z-fold7-5g-256gb-12gb-ram-silver-shadow-ai-smartphone-middle-east-version/?promo=3728744</v>
+      </c>
+      <c r="E5" t="str">
+        <v>SAMSUNG Z Fold7 12+256</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2026-01-10 16:52:39</v>
+      </c>
+      <c r="B6" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C6" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-galaxy-z-fold7-5g-1tb-16gb-ram-jet-black-ai-smartphone-middle-east-version/?promo=3633969</v>
+      </c>
+      <c r="E6" t="str">
+        <v>SAMSUNG Z Fold7 16+1024</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>7169</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2026-01-10 16:52:44</v>
+      </c>
+      <c r="B7" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C7" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D7" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-galaxy-a56-5g-256gb-8gb-ram-awesome-graphite-smartphone/?promo=3728730</v>
+      </c>
+      <c r="E7" t="str">
+        <v>SAMSUNG A56 8+256</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2026-01-10 16:52:52</v>
+      </c>
+      <c r="B8" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C8" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-galaxy-a56-5g-128gb-8gb-ram-awesome-graphite-smartphone/?promo=3728726</v>
+      </c>
+      <c r="E8" t="str">
+        <v>SAMSUNG A56 8+128</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2026-01-10 16:52:57</v>
+      </c>
+      <c r="B9" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-pro-max-512gb-cosmic-orange-middle-east-version-with-facetime/?promo=3647753</v>
+      </c>
+      <c r="E9" t="str">
+        <v>APPLE iPhone 17 Pro Max 12+512</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2026-01-10 16:53:08</v>
+      </c>
+      <c r="B10" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-pro-max-256gb-cosmic-orange-middle-east-version-with-facetime/?promo=3736429</v>
+      </c>
+      <c r="E10" t="str">
+        <v>APPLE iPhone 17 Pro Max 12+256</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2026-01-10 16:53:16</v>
+      </c>
+      <c r="B11" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-pro-max-1tb-cosmic-orange-middle-east-version-with-facetime/?promo=3647755</v>
+      </c>
+      <c r="E11" t="str">
+        <v>APPLE iPhone 17 Pro Max 12+1024</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2026-01-10 16:53:22</v>
+      </c>
+      <c r="B12" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-pro-max-2tb-cosmic-orange-middle-east-version-with-facetime/?promo=3647762</v>
+      </c>
+      <c r="E12" t="str">
+        <v>APPLE iPhone 17 Pro Max 12+2048</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2026-01-10 16:53:32</v>
+      </c>
+      <c r="B13" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-pro-256gb-deep-blue-middle-east-version-with-facetime/?promo=3736428</v>
+      </c>
+      <c r="E13" t="str">
+        <v>APPLE iPhone 17 Pro 12+256</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2026-01-10 16:53:43</v>
+      </c>
+      <c r="B14" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C14" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D14" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-pro-512gb-cosmic-orange-middle-east-version-with-facetime/?promo=3647745</v>
+      </c>
+      <c r="E14" t="str">
+        <v>APPLE iPhone 17 Pro 12+512</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2026-01-10 16:53:47</v>
+      </c>
+      <c r="B15" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C15" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-pro-1tb-cosmic-orange-middle-east-version-with-facetime/?promo=3647726</v>
+      </c>
+      <c r="E15" t="str">
+        <v>APPLE iPhone 17 Pro 12+1024</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2026-01-10 16:53:54</v>
+      </c>
+      <c r="B16" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C16" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-air-256gb-sky-blue-middle-east-version-with-facetime/?promo=3736434</v>
+      </c>
+      <c r="E16" t="str">
+        <v>APPLE iPhone Air 8+256</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2026-01-10 16:54:04</v>
+      </c>
+      <c r="B17" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C17" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D17" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-air-512gb-sky-blue-middle-east-version-with-facetime/?promo=3736438</v>
+      </c>
+      <c r="E17" t="str">
+        <v>APPLE iPhone Air 8+512</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2026-01-10 16:54:08</v>
+      </c>
+      <c r="B18" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C18" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-air-1tb-sky-blue-middle-east-version-with-facetime/?promo=3736441</v>
+      </c>
+      <c r="E18" t="str">
+        <v>APPLE iPhone Air 8+1024</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2026-01-10 16:54:12</v>
+      </c>
+      <c r="B19" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C19" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D19" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-256gb-black-middle-east-version-with-facetime/?promo=3647735</v>
+      </c>
+      <c r="E19" t="str">
+        <v>APPLE iPhone 17 8+256</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2026-01-10 16:54:21</v>
+      </c>
+      <c r="B20" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C20" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-512gb-white-middle-east-version-with-facetime/?promo=3647739</v>
+      </c>
+      <c r="E20" t="str">
+        <v>APPLE iPhone 17 8+512</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2026-01-10 16:54:32</v>
+      </c>
+      <c r="B21" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C21" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://uae.sharafdg.com/product/11-inch-ipad-a16-2025-wi-fi-128gb-blue-middle-east-version-with-facetime/?promo=3731843</v>
+      </c>
+      <c r="E21" t="str">
+        <v>APPLE 11-inch iPad A16 (2025) Wi-Fi 128GB</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2026-01-10 16:54:42</v>
+      </c>
+      <c r="B22" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C22" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://uae.sharafdg.com/product/11-inch-ipad-air-m3-2025-wi-fi-128gb-space-grey-middle-east-version-with-facetime/?promo=3737475</v>
+      </c>
+      <c r="E22" t="str">
+        <v>APPLE 11-inch iPad Air M3 (2025) Wi-Fi 128GB</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2026-01-10 16:54:49</v>
+      </c>
+      <c r="B23" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C23" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://uae.sharafdg.com/product/ipad-mini-2024-wi-fi-128gb-starlight/?promo=3731628</v>
+      </c>
+      <c r="E23" t="str">
+        <v>APPLE iPad mini (2024) Wi-Fi 128GB</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2026-01-10 16:54:55</v>
+      </c>
+      <c r="B24" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C24" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://uae.sharafdg.com/product/11-inch-ipad-pro-m5-2025-wi-fi-256gb-with-standard-glass-space-black-with-facetime-middle-east-version/?promo=3675553</v>
+      </c>
+      <c r="E24" t="str">
+        <v>APPLE 11-inch iPad Pro M5 (2025) Wi-Fi 256GB</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2026-01-10 16:55:00</v>
+      </c>
+      <c r="B25" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C25" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-a11-smx230nzsamea-128-6-w-11-sl/?promo=3694649</v>
+      </c>
+      <c r="E25" t="str">
+        <v>SAMSUNG Tab A11+ Tablet – WiFi 128GB</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2026-01-10 16:55:08</v>
+      </c>
+      <c r="B26" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-a11-smx230nzaemea-256-8-w-11-gr/?promo=3694651</v>
+      </c>
+      <c r="E26" t="str">
+        <v>SAMSUNG Tab A11+ Tablet – WiFi 256GB</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2026-01-10 16:55:14</v>
+      </c>
+      <c r="B27" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C27" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-galaxy-tab-a11-tablet-wifi-64gb-4gb-ram-8-7inch-silver-smx133nzsamea/?promo=3651779</v>
+      </c>
+      <c r="E27" t="str">
+        <v>SAMSUNG Tab A11 Tablet – WiFi 64GB 4GB RAM 8.7inch</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2026-01-10 16:55:22</v>
+      </c>
+      <c r="B28" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C28" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://uae.sharafdg.com/product/samsung-galaxy-tab-a11-tablet-wifi-128gb-8gb-ram-8-7inch-silver-smx133nzsemea/?promo=3651781</v>
+      </c>
+      <c r="E28" t="str">
+        <v>SAMSUNG Tab A11 Tablet – WiFi 128GB 8GB RAM 8.7inch</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2026-01-10 16:55:27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C29" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://uae.sharafdg.com/product/honor-pad-10-papermatte-tablet-wifi-256gb-8gb-ram-12-1inch-grey-pencil-hey3-w00/?promo=3657985</v>
+      </c>
+      <c r="E29" t="str">
+        <v>HONOR Pad 10 Papermatte Tablet – WiFi 256GB 8GB 12.1inch</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2026-01-10 16:55:32</v>
+      </c>
+      <c r="B30" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C30" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://uae.sharafdg.com/product/honor-pad-10-tablet-wifi-256gb-8gb-ram-12-1inch-gray-hey-3w00-pencil/?promo=3581339</v>
+      </c>
+      <c r="E30" t="str">
+        <v>HONOR Pad 10 Tablet – WiFi 256GB 8GB RAM 12.1inch</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2026-01-10 16:55:43</v>
+      </c>
+      <c r="B31" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C31" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://uae.sharafdg.com/product/honor-pad-9-hey2-w09-tablet-wifi-256gb-8gb-12-1inch-space-grey-pencil/?promo=3733958</v>
+      </c>
+      <c r="E31" t="str">
+        <v>HONOR Pad 9 HEY2-W09 Tablet – WiFi 256GB 8GB 12.1inch</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2026-01-10 16:55:55</v>
+      </c>
+      <c r="B32" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C32" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://uae.sharafdg.com/product/honor-pad-x9a-tablet-wifi-128gb-8gb-ram-11-5inch-grey-cover/?promo=3731995</v>
+      </c>
+      <c r="E32" t="str">
+        <v>HONOR Pad X9a Tablet – WiFi 128GB 8GB RAM 11.5inch</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2026-01-10 16:56:01</v>
+      </c>
+      <c r="B33" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C33" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://uae.sharafdg.com/product/honor-pad-x8a-ndl-w09-tablet-wifi-128gb-4gb-11inch-space-grey-inbox-flip-cover/?promo=3329004</v>
+      </c>
+      <c r="E33" t="str">
+        <v>HONOR Pad X8A 128GB 4GB</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2026-01-10 16:56:11</v>
+      </c>
+      <c r="B34" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C34" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://uae.sharafdg.com/product/apple-watch-series-11-gps-46mm-jet-black-aluminum-case-with-black-sport-band-m-l/?promo=3646774</v>
+      </c>
+      <c r="E34" t="str">
+        <v>APPLE Apple Watch Series 11 GPS, 46m</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2026-01-10 16:56:23</v>
+      </c>
+      <c r="B35" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C35" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://uae.sharafdg.com/product/apple-watch-series-11-gps-42mm-jet-black-aluminum-case-with-black-sport-band-s-m/?promo=3646766</v>
+      </c>
+      <c r="E35" t="str">
+        <v>APPLE Apple Watch Series 11 GPS, 42mm</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2026-01-10 16:56:31</v>
+      </c>
+      <c r="B36" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C36" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://uae.sharafdg.com/product/apple-watch-se-3-gps-44mm-starlight-aluminum-case-with-starlight-sport-band-m-l/?promo=3646754</v>
+      </c>
+      <c r="E36" t="str">
+        <v>APPLE Apple Watch SE 3 GPS, 44mm</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2026-01-10 16:56:37</v>
+      </c>
+      <c r="B37" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C37" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://uae.sharafdg.com/product/apple-watch-se-3-gps-40mm-starlight-aluminum-case-with-starlight-sport-band-s-m/?promo=3646749</v>
+      </c>
+      <c r="E37" t="str">
+        <v>APPLE Apple Watch SE 3 GPS, 40mm</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2026-01-10 16:56:42</v>
+      </c>
+      <c r="B38" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C38" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D38" t="str">
+        <v>https://uae.sharafdg.com/product/apple-airpods-pro-3-2025/?promo=3646836</v>
+      </c>
+      <c r="E38" t="str">
+        <v>APPLE Apple AirPods Pro 3 (2025)</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2026-01-10 16:56:49</v>
+      </c>
+      <c r="B39" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C39" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D39" t="str">
+        <v>https://uae.sharafdg.com/product/apple-airpods-4-with-active-noise-cancellation/?promo=3711558</v>
+      </c>
+      <c r="E39" t="str">
+        <v>APPLE Apple AirPods 4 with Active Noise Cancellation</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2026-01-10 16:56:55</v>
+      </c>
+      <c r="B40" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C40" t="str">
+        <v>SDG</v>
+      </c>
+      <c r="D40" t="str">
+        <v>https://uae.sharafdg.com/product/apple-airpods-4/?promo=3711557</v>
+      </c>
+      <c r="E40" t="str">
+        <v>APPLE Apple AirPods 4</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>